--- a/Data/Bar(completed)-Benign.xlsx
+++ b/Data/Bar(completed)-Benign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boxiang\Desktop\REU-Android-Spring2022\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9984083-6663-401B-BCE5-B70D05BFDA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDA0B47-E4AE-4865-8F0E-384F2D1B3456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="2085" windowWidth="21600" windowHeight="11250" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="install(benign2010-2019)" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>INSTALL_FAILED_DUPLICATE_PERMISSION</t>
   </si>
@@ -160,12 +160,6 @@
     <t>benign-2019</t>
   </si>
   <si>
-    <t>malware-2018</t>
-  </si>
-  <si>
-    <t>malware-2019</t>
-  </si>
-  <si>
     <t>DELETE_FAILED_INTERNAL_ERROR</t>
   </si>
 </sst>
@@ -271,7 +265,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -290,6 +284,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -300,7 +307,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -323,6 +330,12 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -403,9 +416,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -435,22 +448,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$2:$M$2</c:f>
+              <c:f>'install(benign2010-2019)'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3.5500000000000002E-3</c:v>
                 </c:pt>
@@ -480,12 +487,6 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>2.9455081001472701E-3</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>1.5641493138854198E-2</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>1.0257111597374099E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,9 +523,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -554,22 +555,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$3:$M$3</c:f>
+              <c:f>'install(benign2010-2019)'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -598,12 +593,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -641,9 +630,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -673,22 +662,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$4:$M$4</c:f>
+              <c:f>'install(benign2010-2019)'!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -718,12 +701,6 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>4.2078687144960999E-4</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,9 +737,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -792,22 +769,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$5:$M$5</c:f>
+              <c:f>'install(benign2010-2019)'!$B$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -836,12 +807,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -879,9 +844,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -911,22 +876,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$6:$M$6</c:f>
+              <c:f>'install(benign2010-2019)'!$B$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3.3500000000000001E-3</c:v>
                 </c:pt>
@@ -956,12 +915,6 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>8.6261308647170194E-3</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0.73879666058919402</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>0.50041028446389502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,9 +956,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -1035,22 +988,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$7:$M$7</c:f>
+              <c:f>'install(benign2010-2019)'!$B$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.1100000000000001E-3</c:v>
                 </c:pt>
@@ -1080,12 +1027,6 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>1.40963601935619E-2</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>9.5960080606467704E-5</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,9 +1068,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -1159,22 +1100,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$8:$M$8</c:f>
+              <c:f>'install(benign2010-2019)'!$B$8:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.95721000000000001</c:v>
                 </c:pt>
@@ -1204,12 +1139,6 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>0.83126446454870595</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0.23586987813069701</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>0.44666301969365402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,9 +1177,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -1280,22 +1209,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$9:$M$9</c:f>
+              <c:f>'install(benign2010-2019)'!$B$9:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>8.5999999999999998E-4</c:v>
                 </c:pt>
@@ -1325,12 +1248,6 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>0.127708815484956</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>5.5656846751751202E-3</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>2.2839168490153099E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1369,9 +1286,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -1401,22 +1318,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$10:$M$10</c:f>
+              <c:f>'install(benign2010-2019)'!$B$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3.6999999999999999E-4</c:v>
                 </c:pt>
@@ -1445,12 +1356,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>9.5960080606467704E-5</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1490,9 +1395,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -1522,22 +1427,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$11:$M$11</c:f>
+              <c:f>'install(benign2010-2019)'!$B$11:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1566,12 +1465,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1611,9 +1504,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -1643,22 +1536,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$12:$M$12</c:f>
+              <c:f>'install(benign2010-2019)'!$B$12:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1.47E-3</c:v>
                 </c:pt>
@@ -1687,12 +1574,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1732,9 +1613,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -1764,22 +1645,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$13:$M$13</c:f>
+              <c:f>'install(benign2010-2019)'!$B$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5.1799999999999997E-3</c:v>
                 </c:pt>
@@ -1808,12 +1683,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1854,9 +1723,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -1886,22 +1755,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$14:$M$14</c:f>
+              <c:f>'install(benign2010-2019)'!$B$14:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>8.5999999999999998E-4</c:v>
                 </c:pt>
@@ -1931,12 +1794,6 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>6.3118030717441596E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,9 +1833,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -2008,22 +1865,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$15:$M$15</c:f>
+              <c:f>'install(benign2010-2019)'!$B$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.3400000000000001E-3</c:v>
                 </c:pt>
@@ -2053,12 +1904,6 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>2.1039343572480499E-4</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>2.87880241819403E-4</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>1.36761487964989E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2098,9 +1943,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -2130,22 +1975,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$16:$M$16</c:f>
+              <c:f>'install(benign2010-2019)'!$B$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3.0699999999999998E-3</c:v>
                 </c:pt>
@@ -2175,12 +2014,6 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>6.7325899431937702E-3</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>2.1111217733422801E-3</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>1.9146608315098401E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,7 +2040,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2217,9 +2053,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'install(benign2010-2019)'!$B$1:$M$1</c:f>
+              <c:f>'install(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -2249,22 +2085,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>benign-2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>malware-2018</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>malware-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'install(benign2010-2019)'!$B$17:$M$17</c:f>
+              <c:f>'install(benign2010-2019)'!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_);[Red]\(0.0000\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.0619999999999999E-2</c:v>
                 </c:pt>
@@ -2294,19 +2124,13 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
                   <c:v>7.3637702503681797E-3</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>1.53536128970348E-3</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>5.47045951859956E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-5BA8-473E-BDF8-C44FB2E75C3E}"/>
+              <c16:uniqueId val="{00000001-1430-4017-9679-4CB64698EE9D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2446,8 +2270,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.58968204142390657"/>
           <c:y val="1.0140008158804203E-2"/>
-          <c:w val="0.33785940194298303"/>
-          <c:h val="0.89159412258218451"/>
+          <c:w val="0.22431490706518828"/>
+          <c:h val="0.74771278590176227"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2572,9 +2396,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'run(benign2010-2019)'!$B$1:$I$1</c:f>
+              <c:f>'run(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -2598,16 +2422,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>benign-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>benign-2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>benign-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'run(benign2010-2019)'!$B$2:$I$2</c:f>
+              <c:f>'run(benign2010-2019)'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.16487647699999999</c:v>
                 </c:pt>
@@ -2631,6 +2461,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>8.0615251750000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0671834625322998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.66880616174582E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2667,9 +2503,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'run(benign2010-2019)'!$B$1:$I$1</c:f>
+              <c:f>'run(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -2693,16 +2529,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>benign-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>benign-2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>benign-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'run(benign2010-2019)'!$B$3:$I$3</c:f>
+              <c:f>'run(benign2010-2019)'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2726,6 +2568,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>2.205021125E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,9 +2610,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'run(benign2010-2019)'!$B$1:$I$1</c:f>
+              <c:f>'run(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -2788,16 +2636,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>benign-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>benign-2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>benign-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'run(benign2010-2019)'!$B$4:$I$4</c:f>
+              <c:f>'run(benign2010-2019)'!$B$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2821,6 +2675,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>3.4340649999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0335917312661499E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.28369704749679E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,9 +2717,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'run(benign2010-2019)'!$B$1:$I$1</c:f>
+              <c:f>'run(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -2883,16 +2743,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>benign-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>benign-2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>benign-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'run(benign2010-2019)'!$B$5:$I$5</c:f>
+              <c:f>'run(benign2010-2019)'!$B$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4.7101449250000003E-2</c:v>
                 </c:pt>
@@ -2916,6 +2782,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>0.108364166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.109819121447028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.115532734274711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,9 +2829,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'run(benign2010-2019)'!$B$1:$I$1</c:f>
+              <c:f>'run(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -2983,16 +2855,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>benign-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>benign-2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>benign-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'run(benign2010-2019)'!$B$6:$I$6</c:f>
+              <c:f>'run(benign2010-2019)'!$B$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.15694710375000001</c:v>
                 </c:pt>
@@ -3016,6 +2894,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>9.6229174000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8191214470284199E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2092426187419698E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3052,9 +2936,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'run(benign2010-2019)'!$B$1:$I$1</c:f>
+              <c:f>'run(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -3078,16 +2962,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>benign-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>benign-2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>benign-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'run(benign2010-2019)'!$B$7:$I$7</c:f>
+              <c:f>'run(benign2010-2019)'!$B$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>8.5034024999999997E-4</c:v>
                 </c:pt>
@@ -3111,6 +3001,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>2.74725275E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0335917312661499E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7021822849807397E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,9 +3045,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'run(benign2010-2019)'!$B$1:$I$1</c:f>
+              <c:f>'run(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -3175,16 +3071,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>benign-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>benign-2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>benign-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'run(benign2010-2019)'!$B$8:$I$8</c:f>
+              <c:f>'run(benign2010-2019)'!$B$8:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3208,6 +3110,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>5.0403225000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.29198966408268E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.28369704749679E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3249,9 +3157,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'run(benign2010-2019)'!$B$1:$I$1</c:f>
+              <c:f>'run(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -3275,16 +3183,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>benign-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>benign-2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>benign-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'run(benign2010-2019)'!$B$9:$I$9</c:f>
+              <c:f>'run(benign2010-2019)'!$B$9:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.29927302724999999</c:v>
                 </c:pt>
@@ -3308,6 +3222,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>8.3567256000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.112403100775193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13222079589216901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3346,9 +3266,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'run(benign2010-2019)'!$B$1:$I$1</c:f>
+              <c:f>'run(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -3372,16 +3292,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>benign-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>benign-2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>benign-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'run(benign2010-2019)'!$B$10:$I$10</c:f>
+              <c:f>'run(benign2010-2019)'!$B$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.1256557499999999E-2</c:v>
                 </c:pt>
@@ -3405,6 +3331,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>2.5781122499999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.29198966408268E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.28369704749679E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3443,9 +3375,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'run(benign2010-2019)'!$B$1:$I$1</c:f>
+              <c:f>'run(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -3469,16 +3401,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>benign-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>benign-2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>benign-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'run(benign2010-2019)'!$B$11:$I$11</c:f>
+              <c:f>'run(benign2010-2019)'!$B$11:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4.6140195250000002E-2</c:v>
                 </c:pt>
@@ -3502,6 +3440,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>4.7116123000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4599483204134302E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9525032092426101E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3543,9 +3487,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'run(benign2010-2019)'!$B$1:$I$1</c:f>
+              <c:f>'run(benign2010-2019)'!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>benign-2010</c:v>
                 </c:pt>
@@ -3569,16 +3513,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>benign-2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>benign-2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>benign-2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'run(benign2010-2019)'!$B$12:$I$12</c:f>
+              <c:f>'run(benign2010-2019)'!$B$12:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.26355484974999999</c:v>
                 </c:pt>
@@ -3602,6 +3552,12 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00_);[Red]\(0.00\)">
                   <c:v>0.55674609350000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.629198966408268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66238767650834396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4912,15 +4868,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:colOff>1314451</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1009651</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4958,10 +4914,10 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>16192</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>4953</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5254,8 +5210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5298,19 +5254,15 @@
       <c r="J1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4">
         <v>3.5500000000000002E-3</v>
@@ -5341,12 +5293,6 @@
       </c>
       <c r="K2" s="2">
         <v>2.9455081001472701E-3</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1.5641493138854198E-2</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1.0257111597374099E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5381,12 +5327,6 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -5424,12 +5364,6 @@
       <c r="K4" s="2">
         <v>4.2078687144960999E-4</v>
       </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5465,12 +5399,8 @@
       <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="19">
-        <v>0</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -5506,12 +5436,6 @@
       <c r="K6" s="2">
         <v>8.6261308647170194E-3</v>
       </c>
-      <c r="L6" s="2">
-        <v>0.73879666058919402</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.50041028446389502</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -5547,12 +5471,7 @@
       <c r="K7" s="2">
         <v>1.40963601935619E-2</v>
       </c>
-      <c r="L7" s="18">
-        <v>9.5960080606467704E-5</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -5588,12 +5507,6 @@
       <c r="K8" s="2">
         <v>0.83126446454870595</v>
       </c>
-      <c r="L8" s="2">
-        <v>0.23586987813069701</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.44666301969365402</v>
-      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -5629,12 +5542,6 @@
       <c r="K9" s="2">
         <v>0.127708815484956</v>
       </c>
-      <c r="L9" s="2">
-        <v>5.5656846751751202E-3</v>
-      </c>
-      <c r="M9" s="2">
-        <v>2.2839168490153099E-2</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -5670,12 +5577,7 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="18">
-        <v>9.5960080606467704E-5</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -5711,12 +5613,8 @@
       <c r="K11" s="4">
         <v>0</v>
       </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -5752,12 +5650,8 @@
       <c r="K12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -5793,12 +5687,8 @@
       <c r="K13" s="4">
         <v>0</v>
       </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -5834,12 +5724,8 @@
       <c r="K14" s="2">
         <v>6.3118030717441596E-4</v>
       </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -5875,12 +5761,6 @@
       <c r="K15" s="2">
         <v>2.1039343572480499E-4</v>
       </c>
-      <c r="L15" s="2">
-        <v>2.87880241819403E-4</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.36761487964989E-4</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -5916,12 +5796,6 @@
       <c r="K16" s="2">
         <v>6.7325899431937702E-3</v>
       </c>
-      <c r="L16" s="2">
-        <v>2.1111217733422801E-3</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.9146608315098401E-2</v>
-      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -5957,12 +5831,6 @@
       <c r="K17" s="2">
         <v>7.3637702503681797E-3</v>
       </c>
-      <c r="L17" s="2">
-        <v>1.53536128970348E-3</v>
-      </c>
-      <c r="M17" s="2">
-        <v>5.47045951859956E-4</v>
-      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
@@ -6008,29 +5876,23 @@
         <f>SUM(K2:K17)</f>
         <v>0.99999999999999889</v>
       </c>
-      <c r="L18" s="4">
-        <f>SUM(L2:L17)</f>
-        <v>0.99999999999999833</v>
-      </c>
-      <c r="M18" s="4">
-        <f>SUM(M2:M17)</f>
-        <v>0.99999999999999967</v>
-      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6039,7 +5901,7 @@
     <col min="2" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="17" t="s">
         <v>27</v>
@@ -6065,8 +5927,14 @@
       <c r="I1" s="17" t="s">
         <v>34</v>
       </c>
+      <c r="J1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -6094,8 +5962,14 @@
       <c r="I2" s="3">
         <v>8.0615251750000005E-2</v>
       </c>
+      <c r="J2" s="2">
+        <v>2.0671834625322998E-2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.66880616174582E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -6123,8 +5997,14 @@
       <c r="I3" s="3">
         <v>2.205021125E-2</v>
       </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -6152,8 +6032,14 @@
       <c r="I4" s="3">
         <v>3.4340649999999999E-4</v>
       </c>
+      <c r="J4" s="2">
+        <v>1.0335917312661499E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.28369704749679E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -6181,8 +6067,14 @@
       <c r="I5" s="3">
         <v>0.108364166</v>
       </c>
+      <c r="J5" s="2">
+        <v>0.109819121447028</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.115532734274711</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -6210,8 +6102,14 @@
       <c r="I6" s="3">
         <v>9.6229174000000001E-2</v>
       </c>
+      <c r="J6" s="2">
+        <v>9.8191214470284199E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3.2092426187419698E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -6239,8 +6137,14 @@
       <c r="I7" s="3">
         <v>2.74725275E-3</v>
       </c>
+      <c r="J7" s="2">
+        <v>1.0335917312661499E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>7.7021822849807397E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -6268,8 +6172,14 @@
       <c r="I8" s="3">
         <v>5.0403225000000005E-4</v>
       </c>
+      <c r="J8" s="2">
+        <v>1.29198966408268E-3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.28369704749679E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -6297,8 +6207,14 @@
       <c r="I9" s="3">
         <v>8.3567256000000006E-2</v>
       </c>
+      <c r="J9" s="2">
+        <v>0.112403100775193</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.13222079589216901</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -6326,8 +6242,14 @@
       <c r="I10" s="3">
         <v>2.5781122499999999E-3</v>
       </c>
+      <c r="J10" s="2">
+        <v>1.29198966408268E-3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.28369704749679E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -6355,8 +6277,14 @@
       <c r="I11" s="3">
         <v>4.7116123000000003E-2</v>
       </c>
+      <c r="J11" s="2">
+        <v>6.4599483204134302E-3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2.9525032092426101E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -6384,16 +6312,54 @@
       <c r="I12" s="3">
         <v>0.55674609350000004</v>
       </c>
+      <c r="J12" s="2">
+        <v>0.629198966408268</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.66238767650834396</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <f>SUM(B2:B12)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <f>SUM(C2:C12)</f>
+        <v>1.0000000007500001</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:K13" si="0">SUM(D2:D12)</f>
+        <v>0.99999999950000007</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0000000005</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.00000000025</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0000000005</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99913892100000001</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0008610792500001</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.999999999999998</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999911</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7">

--- a/Data/Bar(completed)-Benign.xlsx
+++ b/Data/Bar(completed)-Benign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boxiang\Desktop\REU-Android-Spring2022\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDA0B47-E4AE-4865-8F0E-384F2D1B3456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B9DED7-207D-43D4-B916-5B44F88D9503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="2085" windowWidth="21600" windowHeight="11250" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="install(benign2010-2019)" sheetId="1" r:id="rId1"/>
@@ -3606,7 +3606,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="540000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="2400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4874,7 +4874,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1009651</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -5210,7 +5210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -5891,8 +5891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
